--- a/mcmaster_excel/Steel_Pan_Head_Slotted_Screws.xlsx
+++ b/mcmaster_excel/Steel_Pan_Head_Slotted_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,119 +434,89 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Tensile Strength, psi</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr"/>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.167"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.053"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Tensile Strength, psi</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>90283A843</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>$16.40</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2-56</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -581,12 +551,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>90283A844</t>
+          <t>90283A843</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>27.20</t>
+          <t>$16.40</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -603,7 +573,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -623,7 +593,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -638,12 +608,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>90283A077</t>
+          <t>90283A844</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>27.20</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -660,7 +630,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -695,12 +665,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>90283A079</t>
+          <t>90283A077</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -717,7 +687,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -752,12 +722,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>90283A081</t>
+          <t>90283A079</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -774,7 +744,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -809,12 +779,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>90283A083</t>
+          <t>90283A081</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -831,7 +801,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -866,12 +836,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>90283A084</t>
+          <t>90283A083</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -888,7 +858,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -898,17 +868,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>0.167"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.068"</t>
+          <t>0.053"</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -923,17 +893,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>90283A103</t>
+          <t>90283A084</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -945,7 +915,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -980,12 +950,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>90283A105</t>
+          <t>90283A103</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1002,7 +972,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1022,7 +992,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1037,12 +1007,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>90283A106</t>
+          <t>90283A105</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1059,7 +1029,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1079,7 +1049,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1094,12 +1064,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>90283A107</t>
+          <t>90283A106</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1116,7 +1086,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1151,12 +1121,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>90283A108</t>
+          <t>90283A107</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>6.93</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1173,7 +1143,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1208,12 +1178,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>90283A110</t>
+          <t>90283A108</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1230,7 +1200,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1265,7 +1235,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>90283A112</t>
+          <t>90283A110</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1287,7 +1257,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1322,7 +1292,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>90283A113</t>
+          <t>90283A112</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1344,7 +1314,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1379,12 +1349,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>90283A114</t>
+          <t>90283A113</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1401,7 +1371,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1436,12 +1406,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>90283A115</t>
+          <t>90283A114</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1458,7 +1428,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1493,12 +1463,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>90283A117</t>
+          <t>90283A115</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1515,7 +1485,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1525,12 +1495,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.245"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.075"</t>
+          <t>0.068"</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1550,17 +1520,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>90283A124</t>
+          <t>90283A117</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>5-40</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1572,7 +1542,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1592,7 +1562,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1607,12 +1577,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>90283A126</t>
+          <t>90283A124</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1629,7 +1599,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1649,7 +1619,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1664,12 +1634,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>90283A128</t>
+          <t>90283A126</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>8.02</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1686,7 +1656,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1696,17 +1666,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.245"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.082"</t>
+          <t>0.075"</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1721,17 +1691,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>90283A143</t>
+          <t>90283A128</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>5-40</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1743,7 +1713,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1778,12 +1748,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>90283A144</t>
+          <t>90283A143</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1800,7 +1770,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1835,12 +1805,12 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>90283A145</t>
+          <t>90283A144</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1857,7 +1827,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1892,12 +1862,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>90283A146</t>
+          <t>90283A145</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1914,7 +1884,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1934,7 +1904,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1949,12 +1919,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>90283A147</t>
+          <t>90283A146</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1971,7 +1941,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2006,12 +1976,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>90283A148</t>
+          <t>90283A147</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2028,7 +1998,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2063,12 +2033,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>90283A150</t>
+          <t>90283A148</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2085,7 +2055,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2120,12 +2090,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>90283A151</t>
+          <t>90283A150</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2142,7 +2112,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2177,12 +2147,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>90283A152</t>
+          <t>90283A151</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2199,7 +2169,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2234,12 +2204,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>90283A153</t>
+          <t>90283A152</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2256,7 +2226,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2291,12 +2261,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>90283A155</t>
+          <t>90283A153</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2313,7 +2283,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2348,12 +2318,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>90283A157</t>
+          <t>90283A155</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2370,7 +2340,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2405,12 +2375,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>90283A159</t>
+          <t>90283A157</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2427,7 +2397,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2437,12 +2407,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.096"</t>
+          <t>0.082"</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2462,17 +2432,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>90283A189</t>
+          <t>90283A159</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2484,7 +2454,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2519,12 +2489,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>90283A190</t>
+          <t>90283A189</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2541,7 +2511,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2576,12 +2546,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>90283A191</t>
+          <t>90283A190</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2598,7 +2568,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2633,12 +2603,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>90283A192</t>
+          <t>90283A191</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2655,7 +2625,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2690,12 +2660,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>90283A193</t>
+          <t>90283A192</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2712,7 +2682,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2747,12 +2717,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>90283A194</t>
+          <t>90283A193</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2769,7 +2739,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2804,12 +2774,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>90283A196</t>
+          <t>90283A194</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2826,7 +2796,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2861,12 +2831,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>90283A197</t>
+          <t>90283A196</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2883,7 +2853,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2918,12 +2888,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>90283A198</t>
+          <t>90283A197</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>13.71</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2940,7 +2910,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2975,12 +2945,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>90283A199</t>
+          <t>90283A198</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>13.71</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2997,7 +2967,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3032,12 +3002,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>90283A201</t>
+          <t>90283A199</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3054,7 +3024,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3089,12 +3059,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>90283A203</t>
+          <t>90283A201</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>9.16</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3111,7 +3081,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3146,12 +3116,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>90283A204</t>
+          <t>90283A203</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>9.16</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3168,7 +3138,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3203,12 +3173,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>90283A205</t>
+          <t>90283A204</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>10.21</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3225,7 +3195,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3235,12 +3205,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.110"</t>
+          <t>0.096"</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3260,17 +3230,17 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>90283A238</t>
+          <t>90283A205</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>10.21</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3282,7 +3252,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3317,12 +3287,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>90283A240</t>
+          <t>90283A238</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10.09</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3339,7 +3309,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3374,12 +3344,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>90283A242</t>
+          <t>90283A240</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>10.09</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3396,7 +3366,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3431,12 +3401,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>90283A244</t>
+          <t>90283A242</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3453,7 +3423,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3488,12 +3458,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>90283A245</t>
+          <t>90283A244</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3510,7 +3480,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3545,12 +3515,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>90283A247</t>
+          <t>90283A245</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3567,7 +3537,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3602,12 +3572,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>90283A249</t>
+          <t>90283A247</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>8.36</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3624,7 +3594,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3659,12 +3629,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>90283A251</t>
+          <t>90283A249</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>16.28</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3681,7 +3651,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3716,12 +3686,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>90283A253</t>
+          <t>90283A251</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>12.98</t>
+          <t>16.28</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3738,7 +3708,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3773,12 +3743,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>90283A257</t>
+          <t>90283A253</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>23.32</t>
+          <t>12.98</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3795,7 +3765,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3830,17 +3800,17 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>90283A825</t>
+          <t>90283A257</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>23.32</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3852,7 +3822,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3887,12 +3857,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>90283A826</t>
+          <t>90283A825</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3909,7 +3879,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3944,12 +3914,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>90283A827</t>
+          <t>90283A826</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3966,7 +3936,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4001,12 +3971,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>90283A829</t>
+          <t>90283A827</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>8.39</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4023,7 +3993,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4058,12 +4028,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>90283A830</t>
+          <t>90283A829</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4080,7 +4050,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4115,12 +4085,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>90283A831</t>
+          <t>90283A830</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>10.16</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4137,7 +4107,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4172,12 +4142,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>90283A832</t>
+          <t>90283A831</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>12.41</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4194,7 +4164,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4229,12 +4199,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>90283A833</t>
+          <t>90283A832</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4251,7 +4221,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4286,12 +4256,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>90283A835</t>
+          <t>90283A833</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>13.12</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4308,7 +4278,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4343,12 +4313,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>90283A836</t>
+          <t>90283A835</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>10.88</t>
+          <t>13.12</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4365,7 +4335,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4400,12 +4370,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>90283A838</t>
+          <t>90283A836</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>18.39</t>
+          <t>10.88</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4422,7 +4392,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4452,17 +4422,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>90283A840</t>
+          <t>90283A838</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>18.39</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4479,7 +4449,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4514,12 +4484,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>90283A842</t>
+          <t>90283A840</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4536,7 +4506,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4546,12 +4516,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0.492"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.144"</t>
+          <t>0.110"</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4566,22 +4536,22 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>90283A535</t>
+          <t>90283A842</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>10.32</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4593,7 +4563,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4628,12 +4598,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>90283A537</t>
+          <t>90283A535</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>12.23</t>
+          <t>10.32</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4650,7 +4620,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4685,12 +4655,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>90283A539</t>
+          <t>90283A537</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>16.52</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4707,7 +4677,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4742,12 +4712,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>90283A540</t>
+          <t>90283A539</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>18.59</t>
+          <t>16.52</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4764,7 +4734,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4799,12 +4769,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>90283A542</t>
+          <t>90283A540</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>14.56</t>
+          <t>18.59</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4821,7 +4791,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4856,12 +4826,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>90283A544</t>
+          <t>90283A542</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>14.28</t>
+          <t>14.56</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4878,7 +4848,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4908,17 +4878,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>90283A546</t>
+          <t>90283A544</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>10.58</t>
+          <t>14.28</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4935,7 +4905,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4970,12 +4940,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>90283A548</t>
+          <t>90283A546</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>14.80</t>
+          <t>10.58</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4992,7 +4962,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5027,12 +4997,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>90283A550</t>
+          <t>90283A548</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>21.35</t>
+          <t>14.80</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5049,7 +5019,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5084,12 +5054,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>90283A552</t>
+          <t>90283A550</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>13.45</t>
+          <t>21.35</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5106,7 +5076,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5141,12 +5111,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>90283A554</t>
+          <t>90283A552</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>16.74</t>
+          <t>13.45</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5163,7 +5133,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5198,17 +5168,17 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>90283A845</t>
+          <t>90283A554</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>16.55</t>
+          <t>16.74</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>1/4"-28</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5220,7 +5190,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5255,12 +5225,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>90283A846</t>
+          <t>90283A845</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>20.55</t>
+          <t>16.55</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5277,7 +5247,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5312,12 +5282,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>90283A847</t>
+          <t>90283A846</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>24.75</t>
+          <t>20.55</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5334,7 +5304,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5344,12 +5314,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0.615"</t>
+          <t>0.492"</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.176"</t>
+          <t>0.144"</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -5369,17 +5339,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>90283A848</t>
+          <t>90283A847</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>11.78</t>
+          <t>24.75</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>5/16"-18</t>
+          <t>1/4"-28</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5391,7 +5361,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5406,7 +5376,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.178"</t>
+          <t>0.176"</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5426,12 +5396,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>90283A581</t>
+          <t>90283A848</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>11.78</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5448,7 +5418,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5483,12 +5453,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>90283A583</t>
+          <t>90283A581</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>15.53</t>
+          <t>13.16</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5505,7 +5475,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5520,7 +5490,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.176"</t>
+          <t>0.178"</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5540,12 +5510,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>90283A849</t>
+          <t>90283A583</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>29.31</t>
+          <t>15.53</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5562,7 +5532,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5592,17 +5562,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>90283A851</t>
+          <t>90283A849</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>17.67</t>
+          <t>29.31</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -5619,7 +5589,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5629,12 +5599,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0.740"</t>
+          <t>0.615"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.212"</t>
+          <t>0.176"</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5649,22 +5619,22 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>90283A852</t>
+          <t>90283A851</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>15.69</t>
+          <t>17.67</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5676,7 +5646,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5706,17 +5676,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>90283A853</t>
+          <t>90283A852</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>23.67</t>
+          <t>15.69</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -5733,55 +5703,112 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0.740"</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.212"</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>90283A853</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>23.67</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
         <is>
           <t>0.740"</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>0.212"</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>90283A855</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>13.11</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>3/8"-16</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
